--- a/src/test/resources/TestData/Team16_Filters.xlsx
+++ b/src/test/resources/TestData/Team16_Filters.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33808939-DE75-46CF-AEF7-ECBEDA2EEC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayat\eclipse-workspace\ScrapeProject\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4801FA-E783-4C48-AD17-63286E404029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCOS_eliminatedlist" sheetId="1" r:id="rId1"/>
@@ -387,9 +392,6 @@
     <t>Yogurt</t>
   </si>
   <si>
-    <t>Bitter gaurd</t>
-  </si>
-  <si>
     <t>Rolled oats</t>
   </si>
   <si>
@@ -625,6 +627,9 @@
   </si>
   <si>
     <t>kale</t>
+  </si>
+  <si>
+    <t>Bitter gourd</t>
   </si>
 </sst>
 </file>
@@ -1104,9 +1109,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1260,7 +1265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1274,9 +1279,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1337,9 +1342,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1420,9 +1425,9 @@
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1734,13 +1739,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E85114-1461-42DA-80C7-15F5B2A046CA}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1753,7 +1758,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="24">
+    <row r="3" spans="1:1" ht="26">
       <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
@@ -1800,67 +1805,67 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1874,39 +1879,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="24">
-      <c r="A3" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="24">
-      <c r="A5" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -1916,27 +1921,27 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="24">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="24">
-      <c r="A11" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -1946,12 +1951,12 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -1961,15 +1966,15 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="24">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1991,12 +1996,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="24">
-      <c r="A24" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -2006,12 +2011,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -2021,27 +2026,27 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -2060,14 +2065,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2087,47 +2092,47 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="24">
-      <c r="A6" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="24">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="24">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="24">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="24">
-      <c r="A11" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="24">
-      <c r="A13" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2139,18 +2144,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B226C6-D295-41FB-9016-3EF02BEB1D36}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2160,12 +2165,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2175,12 +2180,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2200,37 +2205,37 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2244,24 +2249,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2271,67 +2276,67 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2341,62 +2346,62 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
